--- a/biology/Zoologie/Hylesia/Hylesia.xlsx
+++ b/biology/Zoologie/Hylesia/Hylesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hylesia regroupe des papillons appartenant à la famille des Saturniidae.
-Quelques-unes de ces espèces connaissent des cycles de reproduction irréguliers, avec des pullulations ou rassemblements autour de lampes (habitat, villes, bateaux, aéroports...). Les femelles de certaines espèces (ex : Hylesia metabus) sont sources de réactions allergiques prurigineuses[1]. 
-Les adultes de certaines de ces espèces (ex: Hylesia metabus) semblent fortement attirés par la lumière (phénomène de pollution lumineuse) et d'augmentation du risque allergène, car en tournant autour des lampes qui les attirent et les piègent, dans leur périphérie, les femelles perdent des poils urticants[2] chargés de venin[3]. Or en zone tropicale, il est courant qu'il n'y ait pas de fenêtres ou moustiquaires et que des papillons entrent dans les pièces habitées. 
+Quelques-unes de ces espèces connaissent des cycles de reproduction irréguliers, avec des pullulations ou rassemblements autour de lampes (habitat, villes, bateaux, aéroports...). Les femelles de certaines espèces (ex : Hylesia metabus) sont sources de réactions allergiques prurigineuses. 
+Les adultes de certaines de ces espèces (ex: Hylesia metabus) semblent fortement attirés par la lumière (phénomène de pollution lumineuse) et d'augmentation du risque allergène, car en tournant autour des lampes qui les attirent et les piègent, dans leur périphérie, les femelles perdent des poils urticants chargés de venin. Or en zone tropicale, il est courant qu'il n'y ait pas de fenêtres ou moustiquaires et que des papillons entrent dans les pièces habitées. 
 En France on parle de « papillonite » pour décrire ce type d'allergie.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quelques espèces selon NCBI  (19 avr. 2011)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques espèces selon NCBI  (19 avr. 2011) :
 Hylesia aeneides
 Hylesia continua
 Hylesia invidiosa
@@ -527,7 +541,43 @@
 Hylesia rubrifrons
 Hylesia rufipes
 Hylesia umbrata
-Liste plus complète
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hylesia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hylesia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste plus complète</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hylesia acuta Druce, 1886
 Hylesia aeneides Druce, 1897
 Hylesia alinda Druce, 1886
